--- a/data/零件需求.XLSX
+++ b/data/零件需求.XLSX
@@ -48,7 +48,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -63,6 +63,18 @@
       <sz val="9"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -88,8 +100,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -105,8 +119,10 @@
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -408,7 +424,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/data/零件需求.XLSX
+++ b/data/零件需求.XLSX
@@ -1,33 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27715"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jt/code/github/Scheduling-optimization/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11400" yWindow="460" windowWidth="10780" windowHeight="9440"/>
+    <workbookView windowWidth="14628" windowHeight="10991"/>
   </bookViews>
   <sheets>
     <sheet name="零件需求" sheetId="5" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
   <si>
     <t>零件号</t>
   </si>
@@ -47,8 +34,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -60,24 +53,142 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="11"/>
-      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -90,8 +201,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -99,11 +396,245 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -119,18 +650,56 @@
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="47">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="百分比" xfId="10" builtinId="5"/>
+    <cellStyle name="注释" xfId="11" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="12" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="13" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11"/>
+    <cellStyle name="标题" xfId="15" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="17" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="18" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="19" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="20" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="21" builtinId="44"/>
+    <cellStyle name="输出" xfId="22" builtinId="21"/>
+    <cellStyle name="计算" xfId="23" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="25" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="26" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="27" builtinId="24"/>
+    <cellStyle name="汇总" xfId="28" builtinId="25"/>
+    <cellStyle name="好" xfId="29" builtinId="26"/>
+    <cellStyle name="适中" xfId="30" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="31" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="32" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="33" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="34" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="35" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="36" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="37" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="38" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="39" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="40" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="42" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="43" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="44" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="45" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="46" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -420,20 +989,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" customWidth="1"/>
+    <col min="2" max="2" width="7.33333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,15 +1011,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>500</v>
+        <v>500000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -457,7 +1027,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>50563</v>
       </c>
@@ -465,7 +1035,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -473,37 +1043,37 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>